--- a/data/trans_bre/P15_3-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P15_3-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,47</t>
+          <t>-5,1</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,32</t>
+          <t>8,76</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-24,92%</t>
+          <t>-65,22%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>23,13%</t>
+          <t>-19,84%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-21,43%</t>
+          <t>-32,35%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-10,0%</t>
+          <t>46,84%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 4,71</t>
+          <t>-12,99; 1,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 7,13</t>
+          <t>-7,4; 3,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,72; 5,83</t>
+          <t>-20,63; 8,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 11,43</t>
+          <t>-9,46; 28,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-80,37; 204,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-70,64; 535,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-60,64; 61,37</t>
+          <t>-81,1; 135,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-52,4; 63,85</t>
+          <t>-33,71; 310,82</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-3,97</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,43%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>23,99%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-5,21%</t>
+          <t>-19,11%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>-12,46%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 5,37</t>
+          <t>-5,81; 6,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 4,59</t>
+          <t>-3,38; 5,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 5,8</t>
+          <t>-14,29; 3,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 11,73</t>
+          <t>-15,35; 6,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,41; 95,81</t>
+          <t>-51,61; 120,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-51,73; 126,9</t>
+          <t>-59,68; 272,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-33,6; 41,66</t>
+          <t>-51,46; 24,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-15,98; 48,95</t>
+          <t>-38,44; 24,22</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,84</t>
+          <t>7,79</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>71,01%</t>
+          <t>109,09%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>56,9%</t>
+          <t>75,51%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>-9,07%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>8,47%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 13,72</t>
+          <t>-0,01; 14,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 10,34</t>
+          <t>-1,98; 11,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 9,3</t>
+          <t>-12,65; 6,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 11,51</t>
+          <t>-8,21; 15,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 220,86</t>
+          <t>-3,31; 354,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,11; 194,36</t>
+          <t>-23,82; 278,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-24,38; 48,79</t>
+          <t>-40,91; 35,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-21,44; 40,63</t>
+          <t>-21,23; 63,43</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>32,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-2,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 5,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 4,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 4,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 7,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,79; 84,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,39; 102,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-23,73; 23,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 30,46</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,87</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,87</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-3,26</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>38,25%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>57,65%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-15,32%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,93%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,19; 6,9</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 6,75</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-8,86; 2,69</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-6,71; 8,33</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-13,51; 126,46</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-15,01; 184,86</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-35,32; 14,49</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-19,36; 31,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/P15_3-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P15_3-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,191 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,8</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,38</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-5,1</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>8,76</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-65,22%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-19,84%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-32,35%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>46,84%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-2.801276530048</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.2207258178484422</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-5.946477944126979</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>6.878307312232948</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.652198220350189</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.1164036653591437</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.3748142707656882</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.3798551855630728</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-12,99; 1,53</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-7,4; 3,21</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-20,63; 8,05</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-9,46; 28,47</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-81,1; 135,89</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-33,71; 310,82</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-12.98950382817898</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-6.801788013457815</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-21.16480491805008</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-10.33487095367434</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.8298472302075284</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.3785054313889695</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.534234601292372</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.517235087484606</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>6.716807270463132</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>25.36231936958321</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>1.102937050274597</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.714525773086073</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-3,97</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-4,24</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1,93%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>23,99%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-19,11%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-12,46%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-5,81; 6,34</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,38; 5,17</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-14,29; 3,63</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-15,35; 6,6</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-51,61; 120,2</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-59,68; 272,7</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-51,46; 24,42</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-38,44; 24,22</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.1677437711115684</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.16566664539066</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-3.997860867704789</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-4.620485190889717</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.01928635233302126</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.5562814185905596</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.1904680559862197</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.132486402174444</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>7,79</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5,65</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,17</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,71</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>109,09%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>75,51%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-9,07%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>8,47%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.813749749973204</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.45670192140261</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-14.43585774631481</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-15.73201165066718</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.5160951635287465</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.5351807689177827</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.5254405588743513</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3865485883764027</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-0,01; 14,53</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,98; 11,98</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-12,65; 6,53</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-8,21; 15,69</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-3,31; 354,35</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-23,82; 278,89</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-40,91; 35,42</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-21,23; 63,43</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.340452711476018</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>8.477839829339404</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.115719158947575</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>6.441628287466937</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.202044324473433</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>3.989091133053515</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.2457698268171196</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.2226188987538174</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +819,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>7.787813658593884</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>5.826600419764917</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-2.116387764660752</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>2.887378680422936</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>1.090866364553948</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.846874909623085</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.08954722877880042</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.09161976950892246</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.01306109884233112</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.78526077517223</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-12.55954846541197</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-7.872027060188633</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.03312591769932389</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.2108298173250597</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.4219574680502227</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.2141613517501788</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>14.5259098263206</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>11.97105155804697</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>6.652587829038491</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>15.79355997213889</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>3.543461499834497</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>3.004498147971079</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.3574515729734821</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.6317350348313908</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,87</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,87</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-3,26</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>38,25%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>57,65%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-15,32%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,93%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,19; 6,9</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,84; 6,75</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-8,86; 2,69</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-6,71; 8,33</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-13,51; 126,46</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-15,01; 184,86</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-35,32; 14,49</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-19,36; 31,61</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>2.870917890294777</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>3.400637731558678</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-3.488028765083895</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.3402838758481075</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.3825251104447248</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.7137414676451975</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.1638430416069593</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.0108436108940212</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.194554547371534</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.4586366870018834</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-9.266527347534552</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-7.477883662969564</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.1350544054675931</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.1160291562428196</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3718776875085765</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2104137865567536</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.895898564477361</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.465265092312499</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.262283075799759</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>7.933057053908434</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.264633502139042</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>2.119840460697085</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.1359952842718197</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.3068631343852985</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
